--- a/file/excel/tianmao/template/天猫竞品表.xlsx
+++ b/file/excel/tianmao/template/天猫竞品表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lemon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lemon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056543E8-C53C-4EAF-BB1A-F7D72606DC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8952218-DF04-47A6-8F2A-F910AF84373D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="370" yWindow="-110" windowWidth="25340" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -282,7 +282,7 @@
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -291,13 +291,13 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -314,20 +314,20 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -348,7 +348,7 @@
     <xf numFmtId="10" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -646,7 +646,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -654,11 +654,12 @@
     <col min="1" max="1" width="19.58203125" style="13" customWidth="1"/>
     <col min="3" max="3" width="13.9140625" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
-    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.75" customWidth="1"/>
     <col min="7" max="7" width="15" style="13" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="13.75" style="8" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="13"/>
+    <col min="10" max="10" width="13" style="13" customWidth="1"/>
     <col min="11" max="11" width="8.6640625" style="9"/>
   </cols>
   <sheetData>
@@ -1068,6 +1069,15 @@
     <mergeCell ref="L2:R14"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{283542AE-2776-4B08-BCC1-D42C8AE63C1E}">
+      <formula1>"本品,竞品"</formula1>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{701643A8-2024-4CE3-8755-B88440443B0F}">
+      <formula1>34335</formula1>
+      <formula2>73049</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>